--- a/media/supported_pytorch.xlsx
+++ b/media/supported_pytorch.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Profiles\MobilintCI\Documents\Compiler_Suite_Guide\media\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Manual\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1AD050-C5FD-4022-A4FE-282152AEC30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F6BC98-1CC9-47D3-B079-4800638951E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{82FA91C1-AFA3-4631-B311-4F4CA060295C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>API Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,17 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Supported in ASIC
-Unsupported in FPGA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only beta=1
-Supported in ASIC
-Unsupported in FPGA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Only channel-wise flatten and before fully connected layer or Conv w/ 1x1 kernel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,10 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Only zero-padding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>@&lt;link:https://pytorch.org/docs/1.10/generated/torch.nn.Linear.html?highlight=nn%20linear#torch.nn.Linear;nn.Linear&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -223,6 +208,10 @@
   </si>
   <si>
     <t>@&lt;link:https://pytorch.org/docs/1.10/generated/torch.nn.functional.pad.html?highlight=pad#torch.nn.functional.pad;pad&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only beta=1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -281,7 +270,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -297,7 +286,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -595,14 +584,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456629B3-8544-4598-9B44-E584E1332484}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="113.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.625" customWidth="1"/>
+    <col min="2" max="2" width="100.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -625,19 +614,19 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -645,7 +634,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -653,12 +642,12 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -666,7 +655,7 @@
     </row>
     <row r="10" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
@@ -674,7 +663,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -682,7 +671,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -690,7 +679,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -698,7 +687,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -706,7 +695,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -714,110 +703,97 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="B21" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/media/supported_pytorch.xlsx
+++ b/media/supported_pytorch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Manual\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F6BC98-1CC9-47D3-B079-4800638951E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF84DF21-9632-4F24-A3BB-BC8701372DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{82FA91C1-AFA3-4631-B311-4F4CA060295C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>API Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,55 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Only dilation=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only dilation=1, count_include_pad=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>See Supported operations (ONNX): resize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only mode "nearest" and "linear"
-Only scales=[2,2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only alpha=1</t>
-  </si>
-  <si>
-    <t>Only alpha=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only constant multiplication</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only constant division</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only along channel axis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only channel-wise flatten and before fully connected layer or Conv w/ 1x1 kernel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only before fully connected layer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only when resulting tensor has 2D shape
-Squeeze along batch axis is unsupported</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>@&lt;link:https://pytorch.org/docs/1.10/generated/torch.nn.Linear.html?highlight=nn%20linear#torch.nn.Linear;nn.Linear&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -211,7 +162,53 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Only beta=1</t>
+    <t>Only dilation=1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only dilation=1, count_include_pad=1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See Supported operations (ONNX): resize.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only mode "nearest" and "linear".
+Only scales=[2,2].</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only alpha=1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only constant multiplication.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only constant division.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only along channel axis.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only beta=1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only channel-wise flatten and before fully connected layer or Conv w/ 1x1 kernel.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only before fully connected layer.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only when resulting tensor has 2D shape.
+Squeeze along batch axis is unsupported.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -585,7 +582,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -614,186 +611,186 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
         <v>40</v>
-      </c>
-      <c r="B28" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/media/supported_pytorch.xlsx
+++ b/media/supported_pytorch.xlsx
@@ -1,37 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Manual\media\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF84DF21-9632-4F24-A3BB-BC8701372DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{82FA91C1-AFA3-4631-B311-4F4CA060295C}"/>
+    <workbookView windowWidth="21540" windowHeight="8700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -39,209 +17,501 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>API Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Comments</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>@&lt;link:https://pytorch.org/docs/1.10/generated/torch.nn.Conv2d.html?highlight=conv2d#torch.nn.Conv2d;nn.Conv2d&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>@&lt;link:https://pytorch.org/docs/1.10/generated/torch.nn.ConvTranspose2d.html?highlight=transpos%20conv2d;nn.ConvTranspose2d&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>@&lt;link:https://pytorch.org/docs/1.10/generated/torch.nn.Linear.html?highlight=nn%20linear#torch.nn.Linear;nn.Linear&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>@&lt;link:https://pytorch.org/docs/1.10/generated/torch.nn.BatchNorm2d.html?highlight=nn%20batchnorm2d#torch.nn.BatchNorm2d;nn.BatchNorm2d&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>@&lt;link:https://pytorch.org/docs/1.10/generated/torch.nn.MaxPool2d.html?highlight=nn%20maxpool2d#torch.nn.MaxPool2d;nn.MaxPool2d&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only dilation=1</t>
   </si>
   <si>
     <t>@&lt;link:https://pytorch.org/docs/1.10/generated/torch.nn.AvgPool2d.html?highlight=nn%20avgpool2d#torch.nn.AvgPool2d;nn.AvgPool2d&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only dilation=1, count_include_pad=1</t>
   </si>
   <si>
     <t>@&lt;link:https://pytorch.org/docs/1.10/generated/torch.nn.AdaptiveAvgPool2d.html?highlight=nn%20adaptiveavgpool2d#torch.nn.AdaptiveAvgPool2d;nn.AdaptiveAvgPool2d&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>@&lt;link:https://pytorch.org/docs/1.10/generated/torch.nn.functional.interpolate.html?highlight=nn%20functional%20interpolate#torch.nn.functional.interpolate;nn.functional.interpolate&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See supported operations (ONNX): resize</t>
   </si>
   <si>
     <t>@&lt;link:https://pytorch.org/docs/1.10/generated/torch.nn.Upsample.html?highlight=upsample#torch.nn.Upsample;nn.Upsample&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only mode "nearest" and "linear"
+Only scales=[2,2]</t>
   </si>
   <si>
     <t>@&lt;link:https://pytorch.org/docs/1.10/generated/torch.add.html?highlight=add#torch.add;add&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only alpha=1</t>
   </si>
   <si>
     <t>@&lt;link:https://pytorch.org/docs/1.10/generated/torch.sub.html?highlight=sub#torch.sub;Sub&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>@&lt;link:https://pytorch.org/docs/1.10/generated/torch.mul.html?highlight=mul#torch.mul;Mul&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only constant multiplication</t>
   </si>
   <si>
     <t>@&lt;link:https://pytorch.org/docs/1.10/generated/torch.div.html?highlight=div#torch.div;Div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only constant division</t>
   </si>
   <si>
     <t>@&lt;link:https://pytorch.org/docs/1.10/generated/torch.cat.html#torch.cat;cat&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only along channel axis</t>
   </si>
   <si>
     <t>@&lt;link:https://pytorch.org/docs/1.10/generated/torch.nn.ReLU.html?highlight=nn%20relu#torch.nn.ReLU;Relu&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>@&lt;link:https://pytorch.org/docs/1.10/generated/torch.nn.PReLU.html?highlight=prelu#torch.nn.PReLU;PRelu&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>@&lt;link:https://pytorch.org/docs/1.10/generated/torch.nn.LeakyReLU.html?highlight=leakyrelu#torch.nn.LeakyReLU;LeakyRelu&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>@&lt;link:https://pytorch.org/docs/1.10/generated/torch.nn.Sigmoid.html?highlight=sigmoid#torch.nn.Sigmoid;Sigmoid&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>@&lt;link:https://pytorch.org/docs/1.10/generated/torch.nn.Tanh.html?highlight=tanh#torch.nn.Tanh;Tanh&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>@&lt;link:https://pytorch.org/docs/1.10/generated/torch.nn.Softplus.html?highlight=softplus#torch.nn.Softplus;Softplus&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only beta=1</t>
   </si>
   <si>
     <t>@&lt;link:https://pytorch.org/docs/1.10/generated/torch.nn.Hardswish.html?highlight=hardswish#torch.nn.Hardswish;Hardswish&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>@&lt;link:https://pytorch.org/docs/1.10/generated/torch.clip.html?highlight=clip#torch.clip;Clip&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>@&lt;link:https://pytorch.org/docs/1.10/generated/torch.exp.html?highlight=exp#torch.exp;Exp&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>@&lt;link:https://pytorch.org/docs/1.10/generated/torch.reshape.html?highlight=reshape#torch.reshape;Reshape&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only channel-wise flatten and before fully connected layer or Conv w/ 1x1 kernel</t>
   </si>
   <si>
     <t>@&lt;link:https://pytorch.org/docs/1.10/generated/torch.transpose.html?highlight=transpose#torch.transpose;Transpose&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only before fully connected layer</t>
   </si>
   <si>
     <t>@&lt;link:https://pytorch.org/docs/1.10/generated/torch.squeeze.html?highlight=squeeze#torch.squeeze;Squeeze&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only when resulting tensor has 2D shape
+Squeeze along batch axis is unsupported</t>
   </si>
   <si>
     <t>@&lt;link:https://pytorch.org/docs/1.10/generated/torch.nn.Flatten.html?highlight=nn%20flatten#torch.nn.Flatten;nn.Flatten&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>@&lt;link:https://pytorch.org/docs/1.10/generated/torch.nn.Identity.html?highlight=identity#torch.nn.Identity;nn.Identity&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>@&lt;link:https://pytorch.org/docs/1.10/generated/torch.nn.functional.pad.html?highlight=pad#torch.nn.functional.pad;pad&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only dilation=1.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only dilation=1, count_include_pad=1.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>See Supported operations (ONNX): resize.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only mode "nearest" and "linear".
-Only scales=[2,2].</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only alpha=1.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only constant multiplication.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only constant division.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only along channel axis.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only beta=1.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only channel-wise flatten and before fully connected layer or Conv w/ 1x1 kernel.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only before fully connected layer.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only when resulting tensor has 2D shape.
-Squeeze along batch axis is unsupported.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
+      <name val="Calibri"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -249,34 +519,320 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -325,7 +881,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -358,26 +914,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -410,23 +949,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -568,30 +1090,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456629B3-8544-4598-9B44-E584E1332484}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="50.625" customWidth="1"/>
-    <col min="2" max="2" width="100.625" customWidth="1"/>
+    <col min="1" max="1" width="50.6222222222222" customWidth="1"/>
+    <col min="2" max="2" width="100.622222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -599,202 +1116,202 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" ht="30" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" ht="30" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="2" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/media/supported_pytorch.xlsx
+++ b/media/supported_pytorch.xlsx
@@ -37,13 +37,13 @@
     <t>@&lt;link:https://pytorch.org/docs/1.10/generated/torch.nn.MaxPool2d.html?highlight=nn%20maxpool2d#torch.nn.MaxPool2d;nn.MaxPool2d&gt;</t>
   </si>
   <si>
-    <t>Only dilation=1</t>
+    <t>Only dilation=1.</t>
   </si>
   <si>
     <t>@&lt;link:https://pytorch.org/docs/1.10/generated/torch.nn.AvgPool2d.html?highlight=nn%20avgpool2d#torch.nn.AvgPool2d;nn.AvgPool2d&gt;</t>
   </si>
   <si>
-    <t>Only dilation=1, count_include_pad=1</t>
+    <t>Only dilation=1, count_include_pad=1.</t>
   </si>
   <si>
     <t>@&lt;link:https://pytorch.org/docs/1.10/generated/torch.nn.AdaptiveAvgPool2d.html?highlight=nn%20adaptiveavgpool2d#torch.nn.AdaptiveAvgPool2d;nn.AdaptiveAvgPool2d&gt;</t>
@@ -52,20 +52,20 @@
     <t>@&lt;link:https://pytorch.org/docs/1.10/generated/torch.nn.functional.interpolate.html?highlight=nn%20functional%20interpolate#torch.nn.functional.interpolate;nn.functional.interpolate&gt;</t>
   </si>
   <si>
-    <t>See supported operations (ONNX): resize</t>
+    <t>See supported operations (ONNX): resize.</t>
   </si>
   <si>
     <t>@&lt;link:https://pytorch.org/docs/1.10/generated/torch.nn.Upsample.html?highlight=upsample#torch.nn.Upsample;nn.Upsample&gt;</t>
   </si>
   <si>
-    <t>Only mode "nearest" and "linear"
-Only scales=[2,2]</t>
+    <t>Only mode "nearest" and "linear".
+Only scales=[2,2].</t>
   </si>
   <si>
     <t>@&lt;link:https://pytorch.org/docs/1.10/generated/torch.add.html?highlight=add#torch.add;add&gt;</t>
   </si>
   <si>
-    <t>Only alpha=1</t>
+    <t>Only alpha=1.</t>
   </si>
   <si>
     <t>@&lt;link:https://pytorch.org/docs/1.10/generated/torch.sub.html?highlight=sub#torch.sub;Sub&gt;</t>
@@ -74,19 +74,19 @@
     <t>@&lt;link:https://pytorch.org/docs/1.10/generated/torch.mul.html?highlight=mul#torch.mul;Mul&gt;</t>
   </si>
   <si>
-    <t>Only constant multiplication</t>
+    <t>Only constant multiplication.</t>
   </si>
   <si>
     <t>@&lt;link:https://pytorch.org/docs/1.10/generated/torch.div.html?highlight=div#torch.div;Div&gt;</t>
   </si>
   <si>
-    <t>Only constant division</t>
+    <t>Only constant division.</t>
   </si>
   <si>
     <t>@&lt;link:https://pytorch.org/docs/1.10/generated/torch.cat.html#torch.cat;cat&gt;</t>
   </si>
   <si>
-    <t>Only along channel axis</t>
+    <t>Only along channel axis.</t>
   </si>
   <si>
     <t>@&lt;link:https://pytorch.org/docs/1.10/generated/torch.nn.ReLU.html?highlight=nn%20relu#torch.nn.ReLU;Relu&gt;</t>
@@ -107,7 +107,7 @@
     <t>@&lt;link:https://pytorch.org/docs/1.10/generated/torch.nn.Softplus.html?highlight=softplus#torch.nn.Softplus;Softplus&gt;</t>
   </si>
   <si>
-    <t>Only beta=1</t>
+    <t>Only beta=1.</t>
   </si>
   <si>
     <t>@&lt;link:https://pytorch.org/docs/1.10/generated/torch.nn.Hardswish.html?highlight=hardswish#torch.nn.Hardswish;Hardswish&gt;</t>
@@ -122,20 +122,20 @@
     <t>@&lt;link:https://pytorch.org/docs/1.10/generated/torch.reshape.html?highlight=reshape#torch.reshape;Reshape&gt;</t>
   </si>
   <si>
-    <t>Only channel-wise flatten and before fully connected layer or Conv w/ 1x1 kernel</t>
+    <t>Only channel-wise flatten and before fully connected layer or Conv w/ 1x1 kernel.</t>
   </si>
   <si>
     <t>@&lt;link:https://pytorch.org/docs/1.10/generated/torch.transpose.html?highlight=transpose#torch.transpose;Transpose&gt;</t>
   </si>
   <si>
-    <t>Only before fully connected layer</t>
+    <t>Only before fully connected layer.</t>
   </si>
   <si>
     <t>@&lt;link:https://pytorch.org/docs/1.10/generated/torch.squeeze.html?highlight=squeeze#torch.squeeze;Squeeze&gt;</t>
   </si>
   <si>
-    <t>Only when resulting tensor has 2D shape
-Squeeze along batch axis is unsupported</t>
+    <t>Only when resulting tensor has 2D shape.
+Squeeze along batch axis is unsupported.</t>
   </si>
   <si>
     <t>@&lt;link:https://pytorch.org/docs/1.10/generated/torch.nn.Flatten.html?highlight=nn%20flatten#torch.nn.Flatten;nn.Flatten&gt;</t>
@@ -153,9 +153,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -188,6 +188,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -197,7 +220,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,6 +230,22 @@
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -218,100 +257,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,187 +326,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,6 +517,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -529,17 +544,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,15 +568,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -583,17 +583,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,142 +622,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1099,7 +1099,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>

--- a/media/supported_pytorch.xlsx
+++ b/media/supported_pytorch.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jinman\Desktop\workspace\Manual\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA3BDA1-4CA6-48B2-B166-751E9F386856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B11189-9E4A-40C4-B0BC-427EB610EC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15855" yWindow="780" windowWidth="12780" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5370" yWindow="2430" windowWidth="17610" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$49</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <t>API Name</t>
   </si>
@@ -28,185 +31,529 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Only dilation=1.</t>
-  </si>
-  <si>
-    <t>Only dilation=1, count_include_pad=1.</t>
-  </si>
-  <si>
-    <t>See supported operations (ONNX): resize.</t>
+    <t>See supported operaitons (ONNX): ScatterND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See supported operations (ONNX): GatherND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See supported operations (ONNX): Split</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See supported operations (ONNX): Resize.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See supported operations (ONNX): Clip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See supported operations (ONNX): Transpose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Batch-wise tile is unsupported.
+See supported operations (ONNX): Tile</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>See supported operations (ONNX): Unsqueeze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only when resulting tensor has 2D shape.
+Squeeze along batch axis is unsupported.
+See supported operations (ONNX): Squeeze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only along channel axis.
+See supported operations (ONNX): Concat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only channel-wise flatten and before fully connected layer or Conv w/ 1x1 kernel.
+See supported operations (ONNX): Reshape</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only before fully connected layer.
+See supported operations (ONNX): Transpose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only alpha=1.
+See supported operations (ONNX): Add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See supported operaitons (ONNX): Ceil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See supported operations (ONNX): Floor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only constant division.
+See supported operations (ONNX): Div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See supported operations (ONNX): Erf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See supported operations (ONNX): Exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See supported operations (ONNX): Mod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only constant multiplication.
+See supported operations (ONNX): Mul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See supported operations (ONNX): Pow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See supported operations (ONNX): Reciprocal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See supported operations (ONNX): Sqrt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only alpha=1.
+See supported operations (ONNX): Sub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See supported operations (ONNX): ArgMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See supported operations (ONNX): ReduceMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See supported operations (ONNX): ReduceMin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See supported operations (ONNX): Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See supported operations (ONNX): Min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See supported operations (ONNX): ReduceMean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See supported operations (ONNX): ReduceProd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See supported operations (ONNX): Equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See supported operations (ONNX): Greater</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See supported operations (ONNX): Less</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See supported operations (ONNX): TopK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See supported operations (ONNX): MatMul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See supported operations (ONNX): Conv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See supported operations (ONNX): ConvTranspose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only dilation=1.
+See supported operations (ONNX): MaxPool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only dilation=1, count_include_pad=1.
+See supported operations (ONNX): AveragePool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See supported operations (ONNX): AveragePool</t>
+  </si>
+  <si>
+    <t>See supported operations (ONNX): MaxPool</t>
+  </si>
+  <si>
+    <t>See supported operations (ONNX): Pad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See supported operations (ONNX): Elu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See supported operations (ONNX): HardSigmoid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See supported operations (ONNX): HardSwish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See supported operations (ONNX): LeakyRelu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See supported operations (ONNX): PRelu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See supported operations (ONNX): Relu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See supported operations (ONNX): Sigmoid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only beta=1.
+See supported operations (ONNX): Softplus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See supported operations (ONNX): Tanh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See supported operations (ONNX): Softmax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See supported operations (ONNX): BatchNormalization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See supported operations (ONNX): InstanceNormalization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See supported operations (ONNX): Identity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See supported operations (ONNX): Gemm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Only mode "nearest" and "linear".
-Only scales=[2,2].</t>
-  </si>
-  <si>
-    <t>Only alpha=1.</t>
-  </si>
-  <si>
-    <t>Only constant multiplication.</t>
-  </si>
-  <si>
-    <t>Only constant division.</t>
-  </si>
-  <si>
-    <t>Only along channel axis.</t>
-  </si>
-  <si>
-    <t>Only beta=1.</t>
-  </si>
-  <si>
-    <t>Only channel-wise flatten and before fully connected layer or Conv w/ 1x1 kernel.</t>
-  </si>
-  <si>
-    <t>Only before fully connected layer.</t>
-  </si>
-  <si>
-    <t>Only when resulting tensor has 2D shape.
-Squeeze along batch axis is unsupported.</t>
-  </si>
-  <si>
-    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.nn.Conv2d.html#torch.nn.Conv2d;nn.Conv2d&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.nn.ConvTranspose2d.html#torch.nn.ConvTranspose2d;nn.ConvTranspose2d&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.nn.Linear.html#torch.nn.Linear;nn.Linear&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.nn.BatchNorm2d.html#torch.nn.BatchNorm2d;nn.BatchNorm2d&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.nn.MaxPool2d.html#torch.nn.MaxPool2d;nn.MaxPool2d&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.nn.AvgPool2d.html#torch.nn.AvgPool2d;nn.AvgPool2d&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.nn.AdaptiveAvgPool2d.html#torch.nn.AdaptiveAvgPool2d;nn.AdaptiveAvgPool2d&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.nn.functional.interpolate.html#torch.nn.functional.interpolate;nn.functional.interpolate&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.nn.functional.upsample.html#torch.nn.functional.upsample;nn.Upsample&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.add.html#torch.add;Add&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.div.html#torch.div;Div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.mul.html#torch.mull;Mul&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.sub.html#torch.sub;Sub&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.cat.html#torch.cat;Cat&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.nn.ReLU.html#torch.nn.ReLU;Relu&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.nn.PReLU.html#torch.nn.PReLU;PRelu&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.nn.Sigmoid.html#torch.nn.Sigmoid;Sigmoid&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.nn.LeakyReLU.html#torch.nn.LeakyReLU;LeakyRelu&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.nn.Tanh.html#torch.nn.Tanh;Tanh&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.nn.Softplus.html#torch.nn.Softplus;Softplus&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.nn.Hardswish.html#torch.nn.Hardswish;Hardswish&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.clip.html#torch.clip;Clip&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.exp.html#torch.exp;Exp&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.reshape.html#torch.reshape;Reshape&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.transpose.html#torch.transpose;Transpose&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.squeeze.html#torch.squeezev;Squeeze&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.nn.Flatten.html#torch.nn.Flatten;nn.Flatten&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.nn.Identity.html#torch.nn.Identity;nn.Identity&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.nn.functional.pad.html#torch.nn.functional.pad;Pad&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.ceil.html#torch.ceil;Ceil&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.clamp.html#torch.clamp;Clamp&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>See supported operations (ONNX): clip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://pytorch.org/docs/1.13/special.html#torch.special.erf;Erf&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.floor.html#torch.floor;Floor&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.pow.html#torch.pow;Pow&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.reciprocal.html#torch.reciprocal;Reciprocal&gt;</t>
+Only scales=[2,2].
+See supported operations (ONNX): Upsample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only channel-wise flatten and before fully connected layer or Conv w/ 1x1 kernel.
+See supported operations (ONNX): Flatten</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.add.html#torch.add;ADD&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.amax.html#torch.amax;AMAX&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.amin.html#torch.amin;AMIN&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.argmax.html#torch.argmax;ARGMAX&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.cat.html#torch.cat;CAT&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.ceil.html#torch.ceil;CEIL&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.clamp.html#torch.clamp;CLAMP&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.div.html#torch.div;DIV&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.eq.html#torch.eq;EQ&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.erf.html#torch.erf;ERF&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.exp.html#torch.exp;EXP&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.floor.html#torch.floor;FLOOR&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.fmod.html#torch.fmod;FMOD&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.gather.html#torch.gather;GATHER&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.gt.html#torch.gt;GT&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.lt.html#torch.lt;LT&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.matmul.html#torch.matmul;MATMUL&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.max.html#torch.max;MAX&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.mean.html#torch.mean;MEAN&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.min.html#torch.min;MIN&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.mul.html#torch.mul;MUL&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.nn.AdaptiveAvgPool2d.html#torch.nn.AdaptiveAvgPool2d;ADAPTIVEAVGPOOL2D&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.nn.AvgPool2d.html#torch.nn.AvgPool2d;AVGPOOL2D&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.nn.BatchNorm2d.html#torch.nn.BatchNorm2d;BATCHNORM2D&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.nn.Conv2d.html#torch.nn.Conv2d;CONV2D&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.nn.ConvTranspose2d.html#torch.nn.ConvTranspose2d;CONVTRANSPOSE2D&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.nn.ELU.html#torch.nn.ELU;ELU&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.nn.Flatten.html#torch.nn.Flatten;FLATTEN&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.nn.functional.interpolate.html#torch.nn.functional.interpolate;INTERPOLATE&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.nn.functional.pad.html#torch.nn.functional.pad;PAD&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.nn.Hardsigmoid.html#torch.nn.Hardsigmoid;HARDSIGMOID&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.nn.Hardswish.html#torch.nn.Hardswish;HARDSWISH&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.nn.Identity.html#torch.nn.Identity;IDENTITY&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.nn.InstanceNorm2d.html#torch.nn.InstanceNorm2d;INSTANCENORM2D&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.nn.LeakyReLU.html#torch.nn.LeakyReLU;LEAKYRELU&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.nn.Linear.html#torch.nn.Linear;LINEAR&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.nn.MaxPool2d.html#torch.nn.MaxPool2d;MAXPOOL2D&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.nn.PReLU.html#torch.nn.PReLU;PRELU&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.nn.ReLU.html#torch.nn.ReLU;RELU&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.nn.Sigmoid.html#torch.nn.Sigmoid;SIGMOID&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.nn.Softmax.html#torch.nn.Softmax;SOFTMAX&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.nn.Softplus.html#torch.nn.Softplus;SOFTPLUS&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.nn.Tanh.html#torch.nn.Tanh;TANH&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.nn.Upsample.html#torch.nn.Upsample;UPSAMPLE&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.permute.html#torch.permute;PERMUTE&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.pow.html#torch.pow;POW&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.prod.html#torch.prod;PROD&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.reciprocal.html#torch.reciprocal;RECIPROCAL&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.reshape.html#torch.reshape;RESHAPE&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.scatter.html#torch.scatter;SCATTER&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.split.html#torch.split;SPLIT&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.sqrt.html#torch.sqrt;SQRT&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.squeeze.html#torch.squeeze;SQUEEZE&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.sub.html#torch.sub;SUB&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.tile.html#torch.tile;TILE&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.topk.html#torch.topk;TOPK&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.transpose.html#torch.transpose;TRANSPOSE&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.unsqueeze.html#torch.unsqueeze;UNSQUEEZE&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.nn.AdaptiveMaxPool2d.html#torch.nn.AdaptiveMaxPool2d;ADAPTIVEMAXPOOL2D&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.logical_and.html#torch.logical_and;LOGICAL_AND&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See supported operations (ONNX): And</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.logical_or.html#torch.logical_or;LOGICAL_OR&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See supported operations (ONNX): Or</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.logical_not.html#torch.logical_not;LOGICAL_NOT&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See supported operations (ONNX): Not</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.logical_xor.html#torch.logical_xor;LOGICAL_XOR&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See supported operations (ONNX): Xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://pytorch.org/docs/1.13/generated/torch.tensor.html#torch.tensor;TENSOR&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See supported operations (ONNX): Constant</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -214,7 +561,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,6 +581,13 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -548,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -571,230 +925,525 @@
     </row>
     <row r="2" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>64</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>2</v>
+        <v>65</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>69</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>70</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>6</v>
+        <v>71</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
+        <v>72</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>8</v>
+        <v>73</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>9</v>
+        <v>74</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>75</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>29</v>
+        <v>120</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>122</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>126</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>10</v>
+        <v>76</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>77</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>78</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>36</v>
+        <v>79</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>11</v>
+        <v>80</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>42</v>
+        <v>84</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+    </row>
+    <row r="37" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+    <row r="38" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>49</v>
-      </c>
+    <row r="64" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B50" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B65">
+      <sortCondition ref="A1:A50"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/media/supported_pytorch.xlsx
+++ b/media/supported_pytorch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jinman\Desktop\workspace\Manual\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B11189-9E4A-40C4-B0BC-427EB610EC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3923CA8-74F8-4FA2-A854-EB3A9652C8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5370" yWindow="2430" windowWidth="17610" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12015" yWindow="1710" windowWidth="14340" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -902,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66:XFD66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1435,9 +1435,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="2"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:B50" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B65">
